--- a/biology/Zoologie/Aegolius_martae/Aegolius_martae.xlsx
+++ b/biology/Zoologie/Aegolius_martae/Aegolius_martae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aegolius martae est une espèce fossile d'oiseaux strigiformes de la famille des Strigidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette nyctale a été découverte en Sicile, en Italie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette nyctale a été découverte en Sicile, en Italie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Paléoenvironnement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle vivait au début de l'étage du Pléistocène moyen[1], il y a environ 0,7 Ma (millions d'années).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle vivait au début de l'étage du Pléistocène moyen, il y a environ 0,7 Ma (millions d'années).
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite pour la première fois en 2008 par le naturaliste Marco Pavia[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite pour la première fois en 2008 par le naturaliste Marco Pavia.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Liste des espèces du genre Aegolius</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Les espèces actuelles et éteintes selon la version 4.1 du Congrès ornithologique international (répertoriées par ordre systématique) sont[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les espèces actuelles et éteintes selon la version 4.1 du Congrès ornithologique international (répertoriées par ordre systématique) sont :
 Aegolius funereus (Linnaeus, 1758) – la Nyctale de Tengmalm ;
 Aegolius acadicus (Gmelin, 1788) – la Petite Nyctale ;
 †Aegolius gradyi Olson, 2012 ;
